--- a/biology/Botanique/Tristemma_camerunense/Tristemma_camerunense.xlsx
+++ b/biology/Botanique/Tristemma_camerunense/Tristemma_camerunense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tristemma camerunense Jacq.-Fél. [2] est une espèce d'arbres de la famille des Melastomataceae et du genre Tristemma, endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tristemma camerunense Jacq.-Fél.  est une espèce d'arbres de la famille des Melastomataceae et du genre Tristemma, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce buisson, décrit au Cameroun, atteint une hauteur de 1 mètre environ et est caractérisé par ses jeunes branches à quatre angles. Il se développe dans les vieilles forêts secondaires[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce buisson, décrit au Cameroun, atteint une hauteur de 1 mètre environ et est caractérisé par ses jeunes branches à quatre angles. Il se développe dans les vieilles forêts secondaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen-type a été observé le 14 février 1963 par Jean et Aline Raynal à Nkoemvone, à 12 km au sud d'Ebolowa, en forêt, sur la rive droite de la Seing[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen-type a été observé le 14 février 1963 par Jean et Aline Raynal à Nkoemvone, à 12 km au sud d'Ebolowa, en forêt, sur la rive droite de la Seing.
 </t>
         </is>
       </c>
